--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/65.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/65.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2202079127080805</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.147115079891801</v>
+        <v>-2.143571440759894</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05129589171929582</v>
+        <v>-0.04638725011282745</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2238686777604216</v>
+        <v>-0.2238387916472609</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2000211453967631</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.298835287915587</v>
+        <v>-2.298202190253122</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.04966313406764127</v>
+        <v>-0.05056886627261213</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2283875800544479</v>
+        <v>-0.2278319423179305</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1804416312962805</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.544244191253289</v>
+        <v>-2.547440785520126</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04661597036660797</v>
+        <v>-0.04100104061646535</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2822142996188176</v>
+        <v>-0.2845606644622674</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1659476487239163</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.766355344580569</v>
+        <v>-2.766122354882051</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003695776337662581</v>
+        <v>0.01182113959330021</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3111422273963012</v>
+        <v>-0.3192462434282526</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1530676334406268</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.956159609581181</v>
+        <v>-2.948819824157194</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06994779992874363</v>
+        <v>0.08141430865160712</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.332954820558842</v>
+        <v>-0.3373901637201538</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1388289660885884</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.955743033758962</v>
+        <v>-2.944972444528268</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2815982037291175</v>
+        <v>0.2948237236837223</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3581329560156786</v>
+        <v>-0.3624475348829943</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1219461112227149</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.971905321772109</v>
+        <v>-2.95545271151683</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4278785292369879</v>
+        <v>0.4412675079329613</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3894420141151866</v>
+        <v>-0.3911754086785046</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1032399848471931</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.720932112100434</v>
+        <v>-2.702333190983679</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6265303035745071</v>
+        <v>0.6326331698660482</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4039440980462252</v>
+        <v>-0.4045375508647011</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.08037424856229571</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.362847682781649</v>
+        <v>-2.344528105334844</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7277545688496451</v>
+        <v>0.7360885249767306</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3968196146211311</v>
+        <v>-0.3995276624258925</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.04925804775795558</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.99256727961061</v>
+        <v>-1.973154724311073</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8168926459943435</v>
+        <v>0.8245983838243784</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3646365401918431</v>
+        <v>-0.3724679216812882</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.007052006969368655</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.52261607912811</v>
+        <v>-1.501165168926881</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7768592825346312</v>
+        <v>0.7830841329615219</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3172450936878423</v>
+        <v>-0.3244940009309929</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.05074242916476111</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.077572209321971</v>
+        <v>-1.053454116001323</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6429963320846744</v>
+        <v>0.6518243239599258</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2443614025784796</v>
+        <v>-0.250654564121166</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1272255914206877</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.5800617430606106</v>
+        <v>-0.5503927616608781</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3760346617927263</v>
+        <v>0.3853115552860642</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1293809863599659</v>
+        <v>-0.1368915495734415</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2217535667881208</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.07775547051798007</v>
+        <v>-0.04615548025566318</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06459269638689567</v>
+        <v>0.0772436710640039</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.005714079863206457</v>
+        <v>-0.009889596816223662</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.326608204365642</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4595858655384125</v>
+        <v>0.5006371866076172</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2953660191715359</v>
+        <v>-0.2846698402634052</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08004930617704496</v>
+        <v>0.07879957871038819</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4309470580421571</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9066540620706784</v>
+        <v>0.948662348681701</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7025228363794392</v>
+        <v>-0.6917095527013729</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2146276935808272</v>
+        <v>0.2120099140362245</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5316532008126282</v>
       </c>
       <c r="E18" t="n">
-        <v>1.476351080107879</v>
+        <v>1.522884368219695</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.054813629189794</v>
+        <v>-1.046898078646958</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3444255227202582</v>
+        <v>0.3499324965106164</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6307864864507005</v>
       </c>
       <c r="E19" t="n">
-        <v>1.84764578136435</v>
+        <v>1.897543391929108</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.410548034141069</v>
+        <v>-1.40266663915613</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4988373106905337</v>
+        <v>0.5048730857076326</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7296888847249204</v>
       </c>
       <c r="E20" t="n">
-        <v>2.14000027919135</v>
+        <v>2.191083575551707</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.700795865950581</v>
+        <v>-1.69891487058349</v>
       </c>
       <c r="G20" t="n">
-        <v>0.635616291896023</v>
+        <v>0.6451164163570507</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8297782848219566</v>
       </c>
       <c r="E21" t="n">
-        <v>2.471250638415927</v>
+        <v>2.523137810228238</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.117802292167289</v>
+        <v>-2.123249493731326</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7916394902942669</v>
+        <v>0.8026790545434068</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9309278602281141</v>
       </c>
       <c r="E22" t="n">
-        <v>2.730357140312037</v>
+        <v>2.784293645598221</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.427785937235015</v>
+        <v>-2.431969993077506</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8893914771566782</v>
+        <v>0.9052427056246835</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.031044269653755</v>
       </c>
       <c r="E23" t="n">
-        <v>2.987044696804164</v>
+        <v>3.035984731906428</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.799789976238544</v>
+        <v>-2.806226469140266</v>
       </c>
       <c r="G23" t="n">
-        <v>1.042180876126804</v>
+        <v>1.056806773955222</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.128567915395444</v>
       </c>
       <c r="E24" t="n">
-        <v>3.168714449738987</v>
+        <v>3.217362942757766</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.044332182294587</v>
+        <v>-3.051545409178148</v>
       </c>
       <c r="G24" t="n">
-        <v>1.171036377820659</v>
+        <v>1.188336167895941</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.219556758096372</v>
       </c>
       <c r="E25" t="n">
-        <v>3.351512555925794</v>
+        <v>3.400921010107801</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.311428645056096</v>
+        <v>-3.31813319809525</v>
       </c>
       <c r="G25" t="n">
-        <v>1.265356341035009</v>
+        <v>1.279664470190842</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.300780007189207</v>
       </c>
       <c r="E26" t="n">
-        <v>3.404972103242761</v>
+        <v>3.453279040682561</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.515380630074556</v>
+        <v>-3.523423958999171</v>
       </c>
       <c r="G26" t="n">
-        <v>1.327932982628006</v>
+        <v>1.342701601894784</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.370321669409255</v>
       </c>
       <c r="E27" t="n">
-        <v>3.478090613812672</v>
+        <v>3.523539462961231</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.748495667291386</v>
+        <v>-3.758320269552444</v>
       </c>
       <c r="G27" t="n">
-        <v>1.418177455880326</v>
+        <v>1.432817381884309</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.426348339373177</v>
       </c>
       <c r="E28" t="n">
-        <v>3.475548464431987</v>
+        <v>3.516299704528231</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.928787914377774</v>
+        <v>-3.934033537158145</v>
       </c>
       <c r="G28" t="n">
-        <v>1.469305886370762</v>
+        <v>1.481529916574146</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.46704033310958</v>
       </c>
       <c r="E29" t="n">
-        <v>3.48789081924666</v>
+        <v>3.528466402188001</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.023469560553435</v>
+        <v>-4.025706749595747</v>
       </c>
       <c r="G29" t="n">
-        <v>1.554999131533187</v>
+        <v>1.570139192492104</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.490756026726179</v>
       </c>
       <c r="E30" t="n">
-        <v>3.453476654981828</v>
+        <v>3.487395563657141</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.061971718154171</v>
+        <v>-4.064344004626383</v>
       </c>
       <c r="G30" t="n">
-        <v>1.609045422541186</v>
+        <v>1.624312347000867</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.495935072894611</v>
       </c>
       <c r="E31" t="n">
-        <v>3.455258843199285</v>
+        <v>3.490707432931882</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.121481373624141</v>
+        <v>-4.123350170577697</v>
       </c>
       <c r="G31" t="n">
-        <v>1.582680381447398</v>
+        <v>1.597136111407004</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.482431390487403</v>
       </c>
       <c r="E32" t="n">
-        <v>3.386008449561311</v>
+        <v>3.422186504423299</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.100631235289509</v>
+        <v>-4.100493088256226</v>
       </c>
       <c r="G32" t="n">
-        <v>1.5651134461157</v>
+        <v>1.57877688911621</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.452506499753123</v>
       </c>
       <c r="E33" t="n">
-        <v>3.268076627188013</v>
+        <v>3.301472223922676</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.056845639826443</v>
+        <v>-4.059770209471449</v>
       </c>
       <c r="G33" t="n">
-        <v>1.48862451388608</v>
+        <v>1.500202028172112</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.410031962158181</v>
       </c>
       <c r="E34" t="n">
-        <v>3.230439642067244</v>
+        <v>3.265133150002027</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.902552481427795</v>
+        <v>-3.90084653329493</v>
       </c>
       <c r="G34" t="n">
-        <v>1.414866806446937</v>
+        <v>1.425882583789684</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.359155333304985</v>
       </c>
       <c r="E35" t="n">
-        <v>3.136746067387914</v>
+        <v>3.16838387273219</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.795400092135004</v>
+        <v>-3.790241992971745</v>
       </c>
       <c r="G35" t="n">
-        <v>1.39342870457992</v>
+        <v>1.405708847485565</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.302954151672405</v>
       </c>
       <c r="E36" t="n">
-        <v>3.025636817704721</v>
+        <v>3.060107094671814</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.680184246535265</v>
+        <v>-3.673777334786365</v>
       </c>
       <c r="G36" t="n">
-        <v>1.32748774053398</v>
+        <v>1.340055765999051</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.242975022722196</v>
       </c>
       <c r="E37" t="n">
-        <v>2.92558908941503</v>
+        <v>2.961021821210032</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.569203995075204</v>
+        <v>-3.565059584076701</v>
       </c>
       <c r="G37" t="n">
-        <v>1.2404057059906</v>
+        <v>1.254060610101635</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.179875924192174</v>
       </c>
       <c r="E38" t="n">
-        <v>2.844300081459402</v>
+        <v>2.875354802636706</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.427008003379177</v>
+        <v>-3.425082483802683</v>
       </c>
       <c r="G38" t="n">
-        <v>1.174032918105522</v>
+        <v>1.18757864641542</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.113996117634918</v>
       </c>
       <c r="E39" t="n">
-        <v>2.67795153592449</v>
+        <v>2.704688018710418</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.235363302736478</v>
+        <v>-3.236806680018002</v>
       </c>
       <c r="G39" t="n">
-        <v>1.097343931893928</v>
+        <v>1.109544785111597</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.045210521185236</v>
       </c>
       <c r="E40" t="n">
-        <v>2.570520107922087</v>
+        <v>2.588489590900439</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.10228440531648</v>
+        <v>-3.103082791482344</v>
       </c>
       <c r="G40" t="n">
-        <v>1.031373081734828</v>
+        <v>1.046153899415141</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9737344478614642</v>
       </c>
       <c r="E41" t="n">
-        <v>2.420227114281892</v>
+        <v>2.441420637957533</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.946585684718266</v>
+        <v>-2.94731636968901</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9281848718805616</v>
+        <v>0.9409505116448985</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.900364636564293</v>
       </c>
       <c r="E42" t="n">
-        <v>2.179170604893464</v>
+        <v>2.200761796850345</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.893881219199113</v>
+        <v>-2.894724129574379</v>
       </c>
       <c r="G42" t="n">
-        <v>0.869719705569523</v>
+        <v>0.884714605407374</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8258153942053512</v>
       </c>
       <c r="E43" t="n">
-        <v>1.969789106010593</v>
+        <v>1.985700716625596</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.794279342924125</v>
+        <v>-2.794759960417402</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7952648587968574</v>
+        <v>0.8102158443459825</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7533090387977723</v>
       </c>
       <c r="E44" t="n">
-        <v>1.711337049000633</v>
+        <v>1.724104518527</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.68138302565806</v>
+        <v>-2.685245043383228</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7810762740936673</v>
+        <v>0.7941188178452477</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6849323656762004</v>
       </c>
       <c r="E45" t="n">
-        <v>1.498494860197894</v>
+        <v>1.510198628064012</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.651027273576309</v>
+        <v>-2.653854255913036</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7035760933819986</v>
+        <v>0.7137001666953396</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.621260227824237</v>
       </c>
       <c r="E46" t="n">
-        <v>1.264790944567663</v>
+        <v>1.27655509458078</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.558974995438108</v>
+        <v>-2.561392721000737</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6045219258747302</v>
+        <v>0.6137744225409982</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5625326760492433</v>
       </c>
       <c r="E47" t="n">
-        <v>1.08883431861194</v>
+        <v>1.102653901305697</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.508196659416125</v>
+        <v>-2.510171582567435</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5308611958231906</v>
+        <v>0.5384589776934411</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5077524281228775</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9030177149959066</v>
+        <v>0.9179693104657084</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.434904321453341</v>
+        <v>-2.435272103621421</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4404203281129582</v>
+        <v>0.4468885368898714</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4562506847666717</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7326485723598715</v>
+        <v>0.7454404387133086</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.334708992359877</v>
+        <v>-2.335080434052017</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3593661396178786</v>
+        <v>0.3653939856661796</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4081122997024368</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5709640902400521</v>
+        <v>0.5815456040609541</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.27862739605357</v>
+        <v>-2.277552105900464</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3180610915471466</v>
+        <v>0.3252142412440479</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3632645469882981</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3755290375517021</v>
+        <v>0.3844668151487682</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.219655385660154</v>
+        <v>-2.220153080932381</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2241985688403577</v>
+        <v>0.2272524416688352</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3223211726914558</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2541956875641807</v>
+        <v>0.26375741401356</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.164769233880273</v>
+        <v>-2.164528925133634</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1838687839317459</v>
+        <v>0.1871123420906921</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2856459638279416</v>
       </c>
       <c r="E53" t="n">
-        <v>0.06546915239938264</v>
+        <v>0.07584756263492759</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.096660611749171</v>
+        <v>-2.100574472731863</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1404265738096887</v>
+        <v>0.1423081790974565</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.252817083877349</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1467088327863783</v>
+        <v>-0.1376185750201252</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.97148415157746</v>
+        <v>-1.973087023115954</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07876847275587404</v>
+        <v>0.07956685892173725</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2237026953218179</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2620503220455268</v>
+        <v>-0.2572770828292965</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.930776825769941</v>
+        <v>-1.931097644045911</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04837307583013457</v>
+        <v>0.04965634893401249</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1973597156481156</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3992196524841347</v>
+        <v>-0.3896579260347554</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.909617457652197</v>
+        <v>-1.911183733950087</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.06612306337104111</v>
+        <v>-0.06603889431764988</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1723606815147591</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5156949842813578</v>
+        <v>-0.5076537900791115</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.816565519524807</v>
+        <v>-1.816087341714236</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08794480534373313</v>
+        <v>-0.08700613742221787</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1477205671648646</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7018988875271259</v>
+        <v>-0.6892058283233221</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.776235734616195</v>
+        <v>-1.775450156784543</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1365164483572415</v>
+        <v>-0.135861393550414</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.122310797408615</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.8208279302069066</v>
+        <v>-0.8095291496701488</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.753038011596759</v>
+        <v>-1.753116081443383</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2078161754690895</v>
+        <v>-0.2045305327834477</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.09528694096205591</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.9419398789887684</v>
+        <v>-0.9334449038030215</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.696660603762229</v>
+        <v>-1.699615669441074</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.235354703944941</v>
+        <v>-0.2335676363620692</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.06692267474246737</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.127678412758178</v>
+        <v>-1.117387221179408</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.623981846000254</v>
+        <v>-1.625881138987647</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2806876681649171</v>
+        <v>-0.2797752268325021</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.03811484297382631</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.244976527548334</v>
+        <v>-1.23265491003667</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.546124861692688</v>
+        <v>-1.549926497270858</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3286719575667171</v>
+        <v>-0.3273270824744877</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.01049720920196503</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.335979132201851</v>
+        <v>-1.326142331527258</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.569460426785068</v>
+        <v>-1.576496471712034</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.395609531998463</v>
+        <v>-0.3944079882652693</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.01470879727730048</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.487854260077532</v>
+        <v>-1.477072692274656</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.49988433550571</v>
+        <v>-1.503939088164731</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4337930060455984</v>
+        <v>-0.4321004761676225</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.03726305977777034</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.687054963024124</v>
+        <v>-1.671729486179476</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.453966457356733</v>
+        <v>-1.456124356711067</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.465325905033473</v>
+        <v>-0.4619091294023304</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.05706659200243931</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.808048587194697</v>
+        <v>-1.794241812835151</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.430797400609104</v>
+        <v>-1.438225014610542</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5203267219005826</v>
+        <v>-0.5191251781673889</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.07443763684958871</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.982192528899126</v>
+        <v>-1.972021491693675</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.404830637717233</v>
+        <v>-1.414066056604552</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5491808492761797</v>
+        <v>-0.5466655364052707</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.08994553798870057</v>
       </c>
       <c r="E68" t="n">
-        <v>-2.151049068256826</v>
+        <v>-2.142102751770285</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.367315636731813</v>
+        <v>-1.381796983359842</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6032381188563601</v>
+        <v>-0.6019652144039869</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1039135278619014</v>
       </c>
       <c r="E69" t="n">
-        <v>-2.228671233103844</v>
+        <v>-2.218666094322469</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.367625476435601</v>
+        <v>-1.382058639330167</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6434526287570665</v>
+        <v>-0.6385500863573657</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1165190315859591</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.330719501213268</v>
+        <v>-2.318995605964817</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.298185397467158</v>
+        <v>-1.308777279939564</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6538895913775793</v>
+        <v>-0.6515847011401484</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1274217268650604</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.431744932347787</v>
+        <v>-2.424128242936557</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.24644216693456</v>
+        <v>-1.261002193329889</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7135111672917323</v>
+        <v>-0.710616483759886</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.135590823356673</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.437096986286251</v>
+        <v>-2.431804094653431</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.245688914898776</v>
+        <v>-1.260408130590737</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7640357763121879</v>
+        <v>-0.7612014749273397</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1399150992342675</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.439499463831961</v>
+        <v>-2.436939626751649</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.180896431487153</v>
+        <v>-1.198381027527489</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7648280632712836</v>
+        <v>-0.7660844998653846</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1394588808926471</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.452954313961023</v>
+        <v>-2.454670020824716</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.215205079474908</v>
+        <v>-1.233231285076197</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7977009579859736</v>
+        <v>-0.7987597802808083</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1335761455071886</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.358299504295139</v>
+        <v>-2.367760593832855</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.135285953359256</v>
+        <v>-1.154563716189232</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7734572210059151</v>
+        <v>-0.7727387344487059</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1217574342656127</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.250316098080279</v>
+        <v>-2.262848748146098</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.141912131591447</v>
+        <v>-1.158333635892212</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7728655979494695</v>
+        <v>-0.7736633741946559</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1042838524638534</v>
       </c>
       <c r="E77" t="n">
-        <v>-2.10794597403104</v>
+        <v>-2.124485193022417</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.033004695551314</v>
+        <v>-1.047873341809078</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7467073199650988</v>
+        <v>-0.7501247055169181</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.08227671141644188</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.929416092740116</v>
+        <v>-1.94990210843073</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.010829199586108</v>
+        <v>-1.023454557594793</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7183716251647375</v>
+        <v>-0.721200437263495</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.05712920015937735</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.71610060549222</v>
+        <v>-1.738277931219456</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.951803516173138</v>
+        <v>-0.9664068469365168</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6798844106205816</v>
+        <v>-0.6853901645695862</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.03044306935662985</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.516855378336225</v>
+        <v>-1.53552931969622</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.8343602402619157</v>
+        <v>-0.8466190359438749</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6293652908862167</v>
+        <v>-0.6333950367974911</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.003394796232841357</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.243285827432388</v>
+        <v>-1.264352487607266</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.7328718793337459</v>
+        <v>-0.7433350685433587</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5693503161355613</v>
+        <v>-0.5757343558590832</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.02297338980090073</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.9541114560139526</v>
+        <v>-0.9815505674194943</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.7095247257485069</v>
+        <v>-0.7213718249736613</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5056520304180243</v>
+        <v>-0.5099464819030074</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.04747172920467507</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.7335208349338058</v>
+        <v>-0.7570241282122921</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.5691941764423137</v>
+        <v>-0.5794396239703277</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4505493567978978</v>
+        <v>-0.4580959053313015</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.06909248220363633</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.4661572269158806</v>
+        <v>-0.4901027126850094</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4706645407170488</v>
+        <v>-0.4799749798476078</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.402576655888956</v>
+        <v>-0.4105361207205182</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.08676732269576383</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.2173297181850057</v>
+        <v>-0.2411080856887054</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3416278925821994</v>
+        <v>-0.3482077168429574</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.372991233621938</v>
+        <v>-0.3794832293052443</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1001596932186944</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01216818445836985</v>
+        <v>-0.01541425830620757</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.2883799877400637</v>
+        <v>-0.2982686316721799</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.3240560778850878</v>
+        <v>-0.3316026264184915</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.108799754481324</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2231232786872509</v>
+        <v>0.1985337166834762</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.1855748080707948</v>
+        <v>-0.191919202950328</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2626449947053561</v>
+        <v>-0.2669168791252995</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1117682231127471</v>
       </c>
       <c r="E88" t="n">
-        <v>0.431011081832766</v>
+        <v>0.4098614724458503</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.1336071267291532</v>
+        <v>-0.1356942752849851</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1815584804144088</v>
+        <v>-0.1846099135601793</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.107984224071493</v>
       </c>
       <c r="E89" t="n">
-        <v>0.62312938588096</v>
+        <v>0.600988045473652</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.006880858117825492</v>
+        <v>-0.006969906536630708</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1610059833700295</v>
+        <v>-0.1626741164209354</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.09648550089510943</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8257005104872622</v>
+        <v>0.8055645892651019</v>
       </c>
       <c r="F90" t="n">
-        <v>0.04730815432853246</v>
+        <v>0.04754358370975721</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.09551514078353002</v>
+        <v>-0.09406413949354639</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.07699396970720572</v>
       </c>
       <c r="E91" t="n">
-        <v>1.025816704369654</v>
+        <v>1.010880966837447</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1387169661527639</v>
+        <v>0.1387657598069038</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08156503506494844</v>
+        <v>-0.08138754814801476</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.04997090487061763</v>
       </c>
       <c r="E92" t="n">
-        <v>1.12075817675361</v>
+        <v>1.108300546931031</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2669320511360336</v>
+        <v>0.2653151514219745</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.07508157827111658</v>
+        <v>-0.07362630753639572</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.01729063726169052</v>
       </c>
       <c r="E93" t="n">
-        <v>1.256333784463875</v>
+        <v>1.241472457254232</v>
       </c>
       <c r="F93" t="n">
-        <v>0.3668212000497701</v>
+        <v>0.3680660481510129</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.07081640297861741</v>
+        <v>-0.06860117108066846</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.01775451698572635</v>
       </c>
       <c r="E94" t="n">
-        <v>1.345482230260078</v>
+        <v>1.333922403673672</v>
       </c>
       <c r="F94" t="n">
-        <v>0.441996973062352</v>
+        <v>0.4419353710740004</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1075824213729903</v>
+        <v>-0.1030793770165594</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.05213567981938961</v>
       </c>
       <c r="E95" t="n">
-        <v>1.348795319376174</v>
+        <v>1.341813557389439</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5184053957626417</v>
+        <v>0.5197984545883343</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1219820386303352</v>
+        <v>-0.1162182882350661</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.08339478254965833</v>
       </c>
       <c r="E96" t="n">
-        <v>1.328776502923949</v>
+        <v>1.319607565390395</v>
       </c>
       <c r="F96" t="n">
-        <v>0.597828656368097</v>
+        <v>0.5999871656431084</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09631901623548396</v>
+        <v>-0.08952754949989433</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1101202221753528</v>
       </c>
       <c r="E97" t="n">
-        <v>1.300032161270166</v>
+        <v>1.292761296882653</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6102228544402943</v>
+        <v>0.610702862012895</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.09405255100068818</v>
+        <v>-0.08934213361416292</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1340928813393827</v>
       </c>
       <c r="E98" t="n">
-        <v>1.242187894208057</v>
+        <v>1.23668457994176</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6251500530830263</v>
+        <v>0.6264418650763787</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1391360576638744</v>
+        <v>-0.1329642703358608</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1568479898694526</v>
       </c>
       <c r="E99" t="n">
-        <v>1.140801390032904</v>
+        <v>1.136581958791161</v>
       </c>
       <c r="F99" t="n">
-        <v>0.588338900558574</v>
+        <v>0.5879741679938787</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1676535088259066</v>
+        <v>-0.1616451802392614</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1831098353262167</v>
       </c>
       <c r="E100" t="n">
-        <v>1.117374336839011</v>
+        <v>1.113662969521</v>
       </c>
       <c r="F100" t="n">
-        <v>0.564149446518746</v>
+        <v>0.5657645164707749</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1771804697967112</v>
+        <v>-0.1703597268686377</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2111988565421734</v>
       </c>
       <c r="E101" t="n">
-        <v>1.071773007521266</v>
+        <v>1.064455179241643</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5363407231830951</v>
+        <v>0.5352849504916442</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2094775993925511</v>
+        <v>-0.2039718454435464</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.245337707324032</v>
       </c>
       <c r="E102" t="n">
-        <v>1.030729005500182</v>
+        <v>1.024462680467273</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5362376465887246</v>
+        <v>0.5354807350288803</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2069787543799144</v>
+        <v>-0.2022097846084213</v>
       </c>
     </row>
   </sheetData>
